--- a/DataDict/Site/Template_Metered_data_dictionary_WaDE_July2021.xlsx
+++ b/DataDict/Site/Template_Metered_data_dictionary_WaDE_July2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9BF542-3EFB-476C-8FD0-85D32693253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C17EC19-DEDD-47F7-83AE-4E5BBDB6F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WaterSources" sheetId="4" r:id="rId5"/>
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
     <sheet name="Amounts_time_series" sheetId="11" r:id="rId7"/>
+    <sheet name="PODSite_POUSites" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -639,6 +640,57 @@
   </si>
   <si>
     <t>If the use is municipal, the data provider can add the SDWIS identifier for the CWS.</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>POD SiteName</t>
+  </si>
+  <si>
+    <t>POD SiteNativeID</t>
+  </si>
+  <si>
+    <t>Recognized name of the data point of diversion site by the data provider.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the data point of diversion site in the source data set.</t>
+  </si>
+  <si>
+    <t>POU SiteName</t>
+  </si>
+  <si>
+    <t>POU SiteNativeID</t>
+  </si>
+  <si>
+    <t>Recognized name of the data place of use site by the data provider.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the data place of use site in the source data set.</t>
+  </si>
+  <si>
+    <t>e.g., Boles Ranch</t>
+  </si>
+  <si>
+    <t>e.g., 370001</t>
+  </si>
+  <si>
+    <t>e.g., 370002</t>
+  </si>
+  <si>
+    <t>Start date when the water was transferred between sites.  Format of MM/DD.</t>
+  </si>
+  <si>
+    <t>End date when the water was transferred between sites.  Format of MM/DD.</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>e.g., 01/31/2014</t>
+  </si>
+  <si>
+    <t>e.g., 01/01/2014</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1208,6 +1260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2091,32 +2149,32 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>31</v>
@@ -2126,17 +2184,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>54</v>
@@ -2146,17 +2204,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>124</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>151</v>
@@ -2166,10 +2224,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
@@ -2186,7 +2244,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2411,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF1047A-1EE9-45C5-A2F1-82BE4B1B09DE}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,4 +2763,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A348B52-6312-474E-A2C1-E78E7E60CE86}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" style="26"/>
+    <col min="2" max="2" width="29.77734375" style="64"/>
+    <col min="3" max="3" width="29.77734375" style="26"/>
+    <col min="4" max="4" width="29.77734375" style="64"/>
+    <col min="5" max="6" width="29.77734375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataDict/Site/Template_Metered_data_dictionary_WaDE_July2021.xlsx
+++ b/DataDict/Site/Template_Metered_data_dictionary_WaDE_July2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C17EC19-DEDD-47F7-83AE-4E5BBDB6F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB9B6F-5205-4989-AE9D-8AF7B125A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="208">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -645,31 +645,16 @@
     <t>StartDate</t>
   </si>
   <si>
-    <t>POD SiteName</t>
-  </si>
-  <si>
     <t>POD SiteNativeID</t>
   </si>
   <si>
-    <t>Recognized name of the data point of diversion site by the data provider.</t>
-  </si>
-  <si>
     <t>Unique identifier code / ID used by the data provider to distinguish the data point of diversion site in the source data set.</t>
   </si>
   <si>
-    <t>POU SiteName</t>
-  </si>
-  <si>
     <t>POU SiteNativeID</t>
   </si>
   <si>
-    <t>Recognized name of the data place of use site by the data provider.</t>
-  </si>
-  <si>
     <t>Unique identifier code / ID used by the data provider to distinguish the data place of use site in the source data set.</t>
-  </si>
-  <si>
-    <t>e.g., Boles Ranch</t>
   </si>
   <si>
     <t>e.g., 370001</t>
@@ -1258,14 +1243,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1662,42 +1647,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -2767,44 +2752,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A348B52-6312-474E-A2C1-E78E7E60CE86}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="26"/>
-    <col min="2" max="2" width="29.77734375" style="64"/>
-    <col min="3" max="3" width="29.77734375" style="26"/>
-    <col min="4" max="4" width="29.77734375" style="64"/>
-    <col min="5" max="6" width="29.77734375" style="26"/>
+    <col min="1" max="4" width="29.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>199</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>200</v>
@@ -2815,40 +2790,26 @@
       <c r="D2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="84" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
